--- a/process.xlsx
+++ b/process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C7D4F-28EF-411C-87C2-C657346248B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F28956-A355-49C1-92A3-C9998D0E9583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11617" windowHeight="12464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>了解论文写作等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文献整理工具学习等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精读、文献整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -582,10 +594,43 @@
         <v>45490</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45493</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45493</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45494</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F28956-A355-49C1-92A3-C9998D0E9583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6362A7F-231E-4A36-9DE3-15364FE071A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11617" windowHeight="12464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,11 +79,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>综述精读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综述精读、文献整理</t>
+    <t>综述精读TKDE2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精读TKDE2020到第二章、文献整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精读TKDE2020到第四章RNN、文献整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -633,6 +637,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6362A7F-231E-4A36-9DE3-15364FE071A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617CAECF-1DAB-48F8-9A36-FAA7E2239692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,8 +87,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>综述精读TKDE2020到第四章RNN、文献整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>综述精读TKDE2021到第四章RNN、文献整理</t>
+  </si>
+  <si>
+    <t>综述精读TKDE2020到第一个challenge、文献整理</t>
   </si>
 </sst>
 </file>
@@ -426,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -648,6 +650,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617CAECF-1DAB-48F8-9A36-FAA7E2239692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C235A1F-6E9E-42A6-AABA-24A8BEB74A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>综述精读TKDE2020到第一个challenge、文献整理</t>
+  </si>
+  <si>
+    <t>综述精读TKDE2020完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -661,6 +665,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C235A1F-6E9E-42A6-AABA-24A8BEB74A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0413A-365F-42D2-956E-7A6E5DB58486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>综述精读TKDE2020完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第8页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2022到第3页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -676,6 +684,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0413A-365F-42D2-956E-7A6E5DB58486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E89A841-60FF-498D-979B-F99438303EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>综述精度GNN2022到第3页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第13页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,9 +152,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,233 +443,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="52.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="52.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45482</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45483</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45483</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45484</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45484</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45485</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2.5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>45485</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>45486</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>45486</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>45487</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>45487</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>45488</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2.5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>45489</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>45490</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1.5</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>45493</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1.5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>45493</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>45494</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>45495</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>45496</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" t="s">
@@ -674,36 +677,47 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>45497</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>45503</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1.5</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>45503</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E89A841-60FF-498D-979B-F99438303EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FAB67-56FF-43C8-B21C-E4C3AFB0CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>综述精度GNN2023到第13页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第25页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -720,6 +724,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FAB67-56FF-43C8-B21C-E4C3AFB0CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C72B6B-D0BF-443C-9E1A-80238F88B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>综述精度GNN2023到第25页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第30页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -735,6 +739,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C72B6B-D0BF-443C-9E1A-80238F88B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F882DE-F28C-4064-ADCB-603ED4DA49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>综述精度GNN2023到第30页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第36页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第35页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -750,6 +758,28 @@
         <v>22</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F882DE-F28C-4064-ADCB-603ED4DA49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15ADD09-7B8F-4474-8165-C96F79C6CB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,11 +117,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>综述精度GNN2023到第36页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>综述精度GNN2023到第35页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第46页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第37页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第49页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -766,7 +774,7 @@
         <v>1.5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +785,29 @@
         <v>0.5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15ADD09-7B8F-4474-8165-C96F79C6CB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF7F43-9DB3-412F-89AE-4AEFF0DF179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>综述精度GNN2023到第49页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述精度GNN2023到第54页(完成)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -810,6 +814,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF7F43-9DB3-412F-89AE-4AEFF0DF179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94F8E2-E12E-486D-9FEA-12DF2EF4F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>综述精度GNN2023到第54页(完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他论文综述阅读整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -825,6 +829,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94F8E2-E12E-486D-9FEA-12DF2EF4F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CDD0E5-73F1-4762-842A-187315F32676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,22 @@
   </si>
   <si>
     <t>其他论文综述阅读整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他论文综述等阅读整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体论文粗略阅读约10篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体论文粗略阅读1篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他整理，综述结构整理，具体论文粗略阅读1篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -840,6 +856,61 @@
         <v>28</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45521</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CDD0E5-73F1-4762-842A-187315F32676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F952B1D-40C8-4FBA-8064-9AE15C284E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>其他整理，综述结构整理，具体论文粗略阅读1篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体论文粗略阅读约8篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -911,6 +915,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F952B1D-40C8-4FBA-8064-9AE15C284E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1598C-216E-451B-A898-64C37148CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>具体论文粗略阅读约8篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体论文粗略阅读约几篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -926,6 +930,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1598C-216E-451B-A898-64C37148CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5312D5C1-AE44-482C-941B-A4FB6C3ED837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -941,6 +941,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5312D5C1-AE44-482C-941B-A4FB6C3ED837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7F012-8F55-4F88-B240-E5FAA9790D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>具体论文粗略阅读约几篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体论文粗略阅读约几篇，共整理63篇paperwithcode论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零散阅读和学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -952,6 +960,50 @@
         <v>34</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45528</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7F012-8F55-4F88-B240-E5FAA9790D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F65CA-009B-4582-A4B6-717170CE0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>零散阅读和学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习d2l.ai电子书RNN知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习d3l.ai电子书RNN、注意力知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理综述和论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均干活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总天跨数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,8 +201,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -507,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -518,9 +544,10 @@
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="52.88671875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -530,8 +557,17 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45482</v>
       </c>
@@ -541,8 +577,24 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>AVERAGE(B2:B300)</f>
+        <v>1.875</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="F2" s="4">
+        <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:B3000)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45483</v>
       </c>
@@ -553,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45483</v>
       </c>
@@ -564,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45484</v>
       </c>
@@ -575,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45484</v>
       </c>
@@ -586,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45485</v>
       </c>
@@ -597,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45485</v>
       </c>
@@ -608,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45486</v>
       </c>
@@ -619,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45486</v>
       </c>
@@ -630,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45487</v>
       </c>
@@ -641,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45487</v>
       </c>
@@ -652,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45488</v>
       </c>
@@ -663,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45489</v>
       </c>
@@ -674,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45490</v>
       </c>
@@ -685,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45493</v>
       </c>
@@ -1002,6 +1054,61 @@
       </c>
       <c r="C44" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F65CA-009B-4582-A4B6-717170CE0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA0D56-CE0C-4EEF-9B9A-9903B208C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -579,19 +579,19 @@
       </c>
       <c r="D2">
         <f>AVERAGE(B2:B300)</f>
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="E2" s="4">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.6363636363636365</v>
+        <v>1.6842105263157894</v>
       </c>
       <c r="F2" s="4">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <f>SUM(B2:B3000)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,6 +1108,28 @@
         <v>2.5</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/process.xlsx
+++ b/process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA0D56-CE0C-4EEF-9B9A-9903B208C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1941F05-5970-430A-B765-421017AC1CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -579,19 +579,19 @@
       </c>
       <c r="D2">
         <f>AVERAGE(B2:B300)</f>
-        <v>1.92</v>
+        <v>1.8796296296296295</v>
       </c>
       <c r="E2" s="4">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.6842105263157894</v>
+        <v>1.5859375</v>
       </c>
       <c r="F2" s="4">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <f>SUM(B2:B3000)</f>
-        <v>96</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,6 +1130,50 @@
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1941F05-5970-430A-B765-421017AC1CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D9428-5A75-48DB-B6C7-3AD87DFA5BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理期刊会议论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -579,19 +583,19 @@
       </c>
       <c r="D2">
         <f>AVERAGE(B2:B300)</f>
-        <v>1.8796296296296295</v>
+        <v>1.9910714285714286</v>
       </c>
       <c r="E2" s="4">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.5859375</v>
+        <v>1.6893939393939394</v>
       </c>
       <c r="F2" s="4">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <f>SUM(B2:B3000)</f>
-        <v>101.5</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,6 +1179,28 @@
       </c>
       <c r="C55" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B56" s="2">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D9428-5A75-48DB-B6C7-3AD87DFA5BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15FF3FF-6B06-4029-80DE-538D99A667A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -583,19 +583,19 @@
       </c>
       <c r="D2">
         <f>AVERAGE(B2:B300)</f>
-        <v>1.9910714285714286</v>
+        <v>2.0431034482758621</v>
       </c>
       <c r="E2" s="4">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.6893939393939394</v>
+        <v>1.7426470588235294</v>
       </c>
       <c r="F2" s="4">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <f>SUM(B2:B3000)</f>
-        <v>111.5</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1200,6 +1200,28 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15FF3FF-6B06-4029-80DE-538D99A667A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F02CA-2264-4DE0-AAFB-F2A6433C2D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -583,19 +583,19 @@
       </c>
       <c r="D2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.0431034482758621</v>
+        <v>2.0423728813559321</v>
       </c>
       <c r="E2" s="4">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.7426470588235294</v>
+        <v>1.6736111111111112</v>
       </c>
       <c r="F2" s="4">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <f>SUM(B2:B3000)</f>
-        <v>118.5</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,6 +1222,17 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F02CA-2264-4DE0-AAFB-F2A6433C2D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBAF02-72BE-48A2-AA65-78646EC74825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +209,14 @@
   </si>
   <si>
     <t>整理期刊会议论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理期刊会议论文，现具体论文共245篇笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均干活长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +276,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -561,13 +583,16 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -581,21 +606,21 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.0423728813559321</v>
-      </c>
-      <c r="E2" s="4">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.6736111111111112</v>
-      </c>
-      <c r="F2" s="4">
+        <v>1.7532467532467533</v>
+      </c>
+      <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>72</v>
-      </c>
-      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>120.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,6 +1259,50 @@
       </c>
       <c r="C60" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBAF02-72BE-48A2-AA65-78646EC74825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E2E61-A697-4063-837D-B67A044A0452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>均干活长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整读一篇综述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -608,19 +612,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.1428571428571428</v>
+        <v>2.171875</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.7532467532467533</v>
+        <v>1.7820512820512822</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,6 +1307,17 @@
       </c>
       <c r="C64" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E2E61-A697-4063-837D-B67A044A0452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AB340-974E-4251-AA24-1E3E9500EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +210,18 @@
   </si>
   <si>
     <t>完整读一篇综述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理论文统计，研究LaTeX论文模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理论文写作大纲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -612,19 +613,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.171875</v>
+        <v>2.1940298507462686</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.7820512820512822</v>
+        <v>1.8148148148148149</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,6 +1319,39 @@
       </c>
       <c r="C65" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AB340-974E-4251-AA24-1E3E9500EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25010E29-A035-4E62-B4C9-8AE38DE739F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理论文写作大纲</t>
+    <t>整理论文写作大纲、与导师沟通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -613,11 +613,11 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.1940298507462686</v>
+        <v>2.2014925373134329</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.8148148148148149</v>
+        <v>1.8209876543209877</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
@@ -625,7 +625,7 @@
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>147</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>45562</v>
       </c>
       <c r="B68" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>49</v>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25010E29-A035-4E62-B4C9-8AE38DE739F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC65C4A5-8AEF-48FA-9C98-3C31424D7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>整理论文写作大纲、与导师沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理论文写作思路和杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -613,19 +621,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.2014925373134329</v>
+        <v>2.1884057971014492</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.8209876543209877</v>
+        <v>1.8192771084337349</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>147.5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,6 +1360,28 @@
       </c>
       <c r="C68" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\科研\交通流量预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC65C4A5-8AEF-48FA-9C98-3C31424D7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF69250-C404-41B1-8505-B525780056C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   </si>
   <si>
     <t>杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集文章写作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -621,19 +625,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.1884057971014492</v>
+        <v>2.1928571428571431</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.8192771084337349</v>
+        <v>1.6684782608695652</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>151</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,6 +1386,17 @@
       </c>
       <c r="C70" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF69250-C404-41B1-8505-B525780056C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1E586-1350-4B07-926C-DAF7F54169AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>数据集文章写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集文章写作-PEMS介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -625,19 +629,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.1928571428571431</v>
+        <v>2.211267605633803</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.6684782608695652</v>
+        <v>1.6881720430107527</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>153.5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,6 +1401,17 @@
       </c>
       <c r="C71" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1E586-1350-4B07-926C-DAF7F54169AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B1E32-DFE8-45A5-8CCA-E81DAD53F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>数据集文章写作-PEMS介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究latex格式语法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -629,19 +633,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.211267605633803</v>
+        <v>2.2013888888888888</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.6881720430107527</v>
+        <v>1.5388349514563107</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>157</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1412,6 +1416,17 @@
       </c>
       <c r="C72" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B1E32-DFE8-45A5-8CCA-E81DAD53F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23141CE2-396F-4B1A-B622-3A7350314C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>研究latex格式语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Zotero better bibtex更改.bib内容格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车数据收集写作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -633,19 +641,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.2013888888888888</v>
+        <v>2.2189189189189187</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.5388349514563107</v>
+        <v>1.7468085106382978</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>158.5</v>
+        <v>164.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,13 +1428,35 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45584</v>
+        <v>45574</v>
       </c>
       <c r="B73" s="2">
         <v>1.5</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23141CE2-396F-4B1A-B622-3A7350314C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41976107-165B-4A9A-A739-40E653C904D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>出租车数据收集写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京数据集写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他数据集写作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -641,19 +649,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.2189189189189187</v>
+        <v>2.2076923076923074</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.7468085106382978</v>
+        <v>1.79375</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>164.2</v>
+        <v>172.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,10 +1461,54 @@
         <v>45575</v>
       </c>
       <c r="B75" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B78" s="2">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41976107-165B-4A9A-A739-40E653C904D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A5CFD-C308-434A-BE5F-492B155D62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>其他数据集写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个具体数据集的汇报整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -649,11 +653,11 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.2076923076923074</v>
+        <v>2.2493670886075949</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.79375</v>
+        <v>1.8510416666666665</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
@@ -661,7 +665,7 @@
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>172.2</v>
+        <v>177.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,10 +1509,21 @@
         <v>45577</v>
       </c>
       <c r="B79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A5CFD-C308-434A-BE5F-492B155D62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C37469-6E83-4358-91D0-F966897468D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>三个具体数据集的汇报整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大纲PPT beamer模板查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文大纲PPT16张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -653,19 +661,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.2493670886075949</v>
+        <v>2.2555555555555555</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.8510416666666665</v>
+        <v>1.827</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>177.7</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1524,6 +1532,28 @@
       </c>
       <c r="C80" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_lr580\研究生\_科研\交通流量预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C37469-6E83-4358-91D0-F966897468D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F8C4F-B88E-4DDE-9420-95ACB3AF6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>接任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
   </si>
   <si>
     <t>论文大纲PPT16张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文大纲PPT几张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文大纲PPT完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -661,19 +669,19 @@
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(B2:B300)</f>
-        <v>2.2555555555555555</v>
+        <v>2.2493975903614456</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2:B3000)/((MAX(A2:A3000)-MIN(A2:A3000))+1)</f>
-        <v>1.827</v>
+        <v>1.830392156862745</v>
       </c>
       <c r="F2" s="5">
         <f>(MAX(A2:A3000)-MIN(A2:A3000))+1</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(B2:B3000)</f>
-        <v>182.7</v>
+        <v>186.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,6 +1562,28 @@
       </c>
       <c r="C82" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
